--- a/figures/siege.xlsx
+++ b/figures/siege.xlsx
@@ -31,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="siege" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/yangfan/Dev/fyp/report/figures/siege.log" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/yangfan/Dev/fyp/report/figures/siege.log" comma="1">
       <textFields count="10">
         <textField type="DMY"/>
         <textField/>
@@ -347,11 +347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130860832"/>
-        <c:axId val="-2131009056"/>
+        <c:axId val="2101438560"/>
+        <c:axId val="2100911088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130860832"/>
+        <c:axId val="2101438560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -372,6 +372,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -409,12 +465,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131009056"/>
+        <c:crossAx val="2100911088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131009056"/>
+        <c:axId val="2100911088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -435,6 +491,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Availability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -472,7 +584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130860832"/>
+        <c:crossAx val="2101438560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -785,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128534320"/>
-        <c:axId val="-2095405392"/>
+        <c:axId val="2100588176"/>
+        <c:axId val="2100550368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128534320"/>
+        <c:axId val="2100588176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -810,6 +922,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -847,12 +1015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095405392"/>
+        <c:crossAx val="2100550368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095405392"/>
+        <c:axId val="2100550368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,6 +1040,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -909,7 +1133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128534320"/>
+        <c:crossAx val="2100588176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,7 +1219,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1006,11 +1230,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1104,11 +1328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130775328"/>
-        <c:axId val="-2131285824"/>
+        <c:axId val="2100493072"/>
+        <c:axId val="2100489728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130775328"/>
+        <c:axId val="2100493072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -1129,6 +1353,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1166,12 +1446,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131285824"/>
+        <c:crossAx val="2100489728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131285824"/>
+        <c:axId val="2100489728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,6 +1471,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Transactions per second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1228,7 +1564,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130775328"/>
+        <c:crossAx val="2100493072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1423,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2069555776"/>
-        <c:axId val="-2066672096"/>
+        <c:axId val="2039483408"/>
+        <c:axId val="2039486720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2069555776"/>
+        <c:axId val="2039483408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -1448,6 +1784,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1485,12 +1877,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066672096"/>
+        <c:crossAx val="2039486720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066672096"/>
+        <c:axId val="2039486720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1511,6 +1903,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Availability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1548,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069555776"/>
+        <c:crossAx val="2039483408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1634,7 +2082,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1645,11 +2093,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1743,11 +2191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2065901536"/>
-        <c:axId val="-2066346400"/>
+        <c:axId val="2076422112"/>
+        <c:axId val="2076418784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2065901536"/>
+        <c:axId val="2076422112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -1768,6 +2216,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1805,12 +2314,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066346400"/>
+        <c:crossAx val="2076418784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2066346400"/>
+        <c:axId val="2076418784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,6 +2339,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Response Time (Seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1867,7 +2432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065901536"/>
+        <c:crossAx val="2076422112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1953,7 +2518,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1964,11 +2529,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2062,11 +2627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2093888976"/>
-        <c:axId val="-2124967168"/>
+        <c:axId val="2102941712"/>
+        <c:axId val="2102945072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2093888976"/>
+        <c:axId val="2102941712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -2087,6 +2652,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2124,12 +2745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124967168"/>
+        <c:crossAx val="2102945072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124967168"/>
+        <c:axId val="2102945072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2149,6 +2770,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Transactions per second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2186,7 +2868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2093888976"/>
+        <c:crossAx val="2102941712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2316,13 +2998,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -2396,12 +3075,9 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2436,13 +3112,10 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -5663,6 +6336,195 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="914400"/>
+          <a:ext cx="762000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Availability</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="914400"/>
+          <a:ext cx="762000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Availability</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="914400"/>
+          <a:ext cx="762000" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Availability</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8301,8 +9163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8737,6 +9599,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8745,8 +9608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
